--- a/DATA/objective.xlsx
+++ b/DATA/objective.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11B46DE-E865-471B-BC19-927232DBD791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE497D6-8231-4298-9263-403F62FBA430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26C34973-2856-4462-94B6-BEAFB7902843}"/>
+    <workbookView xWindow="11190" yWindow="945" windowWidth="14160" windowHeight="14880" xr2:uid="{26C34973-2856-4462-94B6-BEAFB7902843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="C2">
-        <v>6000</v>
+        <v>350</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/objective.xlsx
+++ b/DATA/objective.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE497D6-8231-4298-9263-403F62FBA430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4F445-D389-4031-AAB9-B48200FDA230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="945" windowWidth="14160" windowHeight="14880" xr2:uid="{26C34973-2856-4462-94B6-BEAFB7902843}"/>
+    <workbookView xWindow="13665" yWindow="1440" windowWidth="13350" windowHeight="11385" xr2:uid="{26C34973-2856-4462-94B6-BEAFB7902843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>800</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
